--- a/Data/Okanogan_EDT/Barriers_Okanogan_EDT.xlsx
+++ b/Data/Okanogan_EDT/Barriers_Okanogan_EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E0863-C5C1-4D5C-8BFF-970A5FFB2FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57FE6D-B98B-40B4-A9AC-14F5A000E024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="72" windowWidth="14796" windowHeight="11352" xr2:uid="{5C49A608-90BA-49C9-950D-F995601BA426}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{5C49A608-90BA-49C9-950D-F995601BA426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -825,8 +825,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B47667-42FD-4841-A9AB-7F232088AD98}">
   <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I235" sqref="I235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1156,7 @@
     <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.5546875" bestFit="1" customWidth="1"/>
@@ -4733,7 +4733,7 @@
         <v>196</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D110">
         <v>295</v>
@@ -4765,7 +4765,7 @@
         <v>196</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D111">
         <v>296</v>
@@ -4797,7 +4797,7 @@
         <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D112">
         <v>298</v>
@@ -8253,7 +8253,7 @@
         <v>196</v>
       </c>
       <c r="C220" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D220">
         <v>295</v>
@@ -8285,7 +8285,7 @@
         <v>196</v>
       </c>
       <c r="C221" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D221">
         <v>296</v>
@@ -8317,7 +8317,7 @@
         <v>196</v>
       </c>
       <c r="C222" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D222">
         <v>298</v>
